--- a/data/trans_orig/P78C_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P78C_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>382360</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>365608</v>
+        <v>365541</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>395774</v>
+        <v>395701</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8515423298405188</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8142329705256282</v>
+        <v>0.8140854521229882</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8814153876644572</v>
+        <v>0.8812530427752988</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>560</v>
@@ -762,19 +762,19 @@
         <v>398575</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>387081</v>
+        <v>386577</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>408141</v>
+        <v>408264</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.8925301936314672</v>
+        <v>0.8925301936314674</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8667921495851698</v>
+        <v>0.8656629412369847</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9139530560204823</v>
+        <v>0.9142289631565191</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>920</v>
@@ -783,19 +783,19 @@
         <v>780936</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>760352</v>
+        <v>760920</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>797851</v>
+        <v>798274</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8719801136168549</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8489962173480899</v>
+        <v>0.8496312539595816</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8908677961419438</v>
+        <v>0.8913397254042849</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>17192</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10737</v>
+        <v>10800</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26584</v>
+        <v>27024</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03828834935162446</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02391225350303967</v>
+        <v>0.02405321207300235</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05920398920926206</v>
+        <v>0.0601837949718272</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -833,19 +833,19 @@
         <v>7641</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3954</v>
+        <v>3927</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13645</v>
+        <v>13221</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.01711163077287264</v>
+        <v>0.01711163077287265</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.008854777558114363</v>
+        <v>0.008794658747959726</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03055437307526032</v>
+        <v>0.0296049167375499</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>29</v>
@@ -854,19 +854,19 @@
         <v>24834</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>16652</v>
+        <v>16825</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>35719</v>
+        <v>35239</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02772899945204691</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01859379496151868</v>
+        <v>0.01878657699989002</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03988355948700754</v>
+        <v>0.03934776736888158</v>
       </c>
     </row>
     <row r="6">
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6629</v>
+        <v>7796</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.004033844063067099</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01476365261792106</v>
+        <v>0.01736189993300935</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>4453</v>
+        <v>4439</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.003008221723784536</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.00997245765073081</v>
+        <v>0.009940443387319985</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -925,19 +925,19 @@
         <v>3155</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>8458</v>
+        <v>8723</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.003522437864555576</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.001349523276240287</v>
+        <v>0.001342004045665503</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.009444563231657351</v>
+        <v>0.009740430655123122</v>
       </c>
     </row>
     <row r="7">
@@ -967,19 +967,19 @@
         <v>2109</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5780</v>
+        <v>5739</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.004721943367770511</v>
+        <v>0.00472194336777051</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001357835660899691</v>
+        <v>0.001372414304835642</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01294397322097647</v>
+        <v>0.01285060052166282</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -988,19 +988,19 @@
         <v>2109</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>5696</v>
+        <v>6429</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.002354503226779776</v>
+        <v>0.002354503226779775</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0006864178786388814</v>
+        <v>0.0006822578126759464</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.006360611493900322</v>
+        <v>0.007178503834744904</v>
       </c>
     </row>
     <row r="8">
@@ -1017,19 +1017,19 @@
         <v>2900</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>793</v>
+        <v>830</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7813</v>
+        <v>8615</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.006458647764620461</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.001765637853873816</v>
+        <v>0.001848527292883403</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01739985009639532</v>
+        <v>0.01918579669983092</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -1038,19 +1038,19 @@
         <v>3597</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1305</v>
+        <v>1473</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7960</v>
+        <v>7724</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.008055124481221735</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.002922934664964869</v>
+        <v>0.003299253629078499</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01782383190428596</v>
+        <v>0.01729595917763288</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>9</v>
@@ -1059,19 +1059,19 @@
         <v>6497</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3200</v>
+        <v>3052</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>12709</v>
+        <v>12860</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.007254699154472531</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.003572770344643185</v>
+        <v>0.003407879807231934</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01419081556948919</v>
+        <v>0.01435882958498131</v>
       </c>
     </row>
     <row r="9">
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8064</v>
+        <v>8219</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.004998526200644907</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01795890603443712</v>
+        <v>0.01830472681911962</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>3048</v>
+        <v>2645</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.001345553747016695</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.006824649899014225</v>
+        <v>0.005923432293162855</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>3</v>
@@ -1130,19 +1130,19 @@
         <v>2845</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>8908</v>
+        <v>8510</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.003177044077815841</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0006777271868405636</v>
+        <v>0.0006764111378270999</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.009946472490093845</v>
+        <v>0.009502450530324858</v>
       </c>
     </row>
     <row r="10">
@@ -1159,19 +1159,19 @@
         <v>42513</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>31215</v>
+        <v>31017</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>56627</v>
+        <v>55697</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09467830277952426</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06951687215557463</v>
+        <v>0.06907648754014224</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1261110549973916</v>
+        <v>0.1240414060183317</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>53</v>
@@ -1180,19 +1180,19 @@
         <v>32701</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>24769</v>
+        <v>24390</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>43077</v>
+        <v>43058</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07322733227586663</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05546505490395309</v>
+        <v>0.05461696189358758</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09646214437273049</v>
+        <v>0.09642088523480641</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>96</v>
@@ -1201,19 +1201,19 @@
         <v>75214</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>61057</v>
+        <v>60563</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>92233</v>
+        <v>90861</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.08398220260747441</v>
+        <v>0.08398220260747444</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06817474586814533</v>
+        <v>0.0676239255780976</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1029856784849625</v>
+        <v>0.1014538662808378</v>
       </c>
     </row>
     <row r="11">
@@ -1305,19 +1305,19 @@
         <v>682287</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>654290</v>
+        <v>653311</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>707873</v>
+        <v>706327</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.7639558203593825</v>
+        <v>0.7639558203593824</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7326077535008705</v>
+        <v>0.7315122225175581</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7926051073523668</v>
+        <v>0.7908739192767706</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>964</v>
@@ -1326,19 +1326,19 @@
         <v>665483</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>648568</v>
+        <v>646819</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>683510</v>
+        <v>682005</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.8423391367673652</v>
+        <v>0.842339136767365</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8209279372841438</v>
+        <v>0.8187150663653203</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8651565709550859</v>
+        <v>0.8632515179199971</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1624</v>
@@ -1347,19 +1347,19 @@
         <v>1347769</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1314447</v>
+        <v>1314075</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1377453</v>
+        <v>1382290</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.8007478506246446</v>
+        <v>0.8007478506246447</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7809504306858376</v>
+        <v>0.7807294738685489</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8183841306931899</v>
+        <v>0.8212578997520087</v>
       </c>
     </row>
     <row r="13">
@@ -1376,19 +1376,19 @@
         <v>56082</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>42609</v>
+        <v>40994</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>75511</v>
+        <v>74239</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.0627944252599269</v>
+        <v>0.06279442525992689</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0477090582804942</v>
+        <v>0.04590149396188038</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08454979365293414</v>
+        <v>0.08312544503721052</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>28</v>
@@ -1397,19 +1397,19 @@
         <v>22243</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15332</v>
+        <v>14876</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>32568</v>
+        <v>32410</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02815363682616824</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01940672586715878</v>
+        <v>0.01882881526277439</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04122302030143932</v>
+        <v>0.04102288360423903</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>80</v>
@@ -1418,19 +1418,19 @@
         <v>78324</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>61957</v>
+        <v>61313</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>97714</v>
+        <v>101263</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04653452462196919</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03681046211201413</v>
+        <v>0.03642797046746411</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05805452558067007</v>
+        <v>0.06016292808109729</v>
       </c>
     </row>
     <row r="14">
@@ -1450,16 +1450,16 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3370</v>
+        <v>2644</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.0006573680614311186</v>
+        <v>0.0006573680614311185</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.003773557741436411</v>
+        <v>0.002960805521956726</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -1471,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3684</v>
+        <v>4100</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.001382226918557115</v>
@@ -1480,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.004663613480409348</v>
+        <v>0.005189745184120614</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3</v>
@@ -1489,19 +1489,19 @@
         <v>1679</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5057</v>
+        <v>4533</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.0009976066508601707</v>
+        <v>0.0009976066508601709</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.000254074695232941</v>
+        <v>0.0002548616486000921</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.003004271085447129</v>
+        <v>0.002692937077337565</v>
       </c>
     </row>
     <row r="15">
@@ -1518,19 +1518,19 @@
         <v>2998</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8119</v>
+        <v>8899</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.003357271138920184</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.000722380704757381</v>
+        <v>0.0007347798271828968</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.009090462837106171</v>
+        <v>0.009964002365498605</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>3</v>
@@ -1539,19 +1539,19 @@
         <v>3146</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>10226</v>
+        <v>11517</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.003982181448246383</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.0008569285952289182</v>
+        <v>0.0008675258129619624</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.01294356087211737</v>
+        <v>0.01457712693513851</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>6</v>
@@ -1560,19 +1560,19 @@
         <v>6144</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>2367</v>
+        <v>2438</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>14463</v>
+        <v>14192</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.003650595280681841</v>
+        <v>0.003650595280681842</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.001406341106996591</v>
+        <v>0.00144852707933557</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.008592948702787227</v>
+        <v>0.008431998069668739</v>
       </c>
     </row>
     <row r="16">
@@ -1589,19 +1589,19 @@
         <v>23688</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15394</v>
+        <v>16153</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>34720</v>
+        <v>34090</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02652310144906847</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01723639083180764</v>
+        <v>0.01808613681274922</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03887543146591085</v>
+        <v>0.03816999945769648</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -1610,19 +1610,19 @@
         <v>11599</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6373</v>
+        <v>6544</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>19357</v>
+        <v>19203</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01468211240358609</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008066339265876282</v>
+        <v>0.008283384317162412</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02450180330405886</v>
+        <v>0.02430607141969137</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>41</v>
@@ -1631,19 +1631,19 @@
         <v>35287</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>25911</v>
+        <v>25182</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>48105</v>
+        <v>47556</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.0209651071296592</v>
+        <v>0.02096510712965919</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.015394460675809</v>
+        <v>0.01496160924668085</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0285803163392208</v>
+        <v>0.02825452465590121</v>
       </c>
     </row>
     <row r="17">
@@ -1660,19 +1660,19 @@
         <v>5816</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2141</v>
+        <v>2328</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>12310</v>
+        <v>13379</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.006512233831418279</v>
+        <v>0.006512233831418278</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.002396949943858234</v>
+        <v>0.00260701268153553</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01378303002609192</v>
+        <v>0.0149809222066961</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -1681,19 +1681,19 @@
         <v>4305</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1494</v>
+        <v>1657</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10260</v>
+        <v>9892</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.005448565509298879</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.001890522177068132</v>
+        <v>0.002097421706719981</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01298671676052691</v>
+        <v>0.01252078720834257</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>11</v>
@@ -1702,19 +1702,19 @@
         <v>10121</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5160</v>
+        <v>5342</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>17693</v>
+        <v>18609</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.006012962827166252</v>
+        <v>0.006012962827166253</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.003065932091335401</v>
+        <v>0.003174084438056276</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01051212432270518</v>
+        <v>0.01105627185561772</v>
       </c>
     </row>
     <row r="18">
@@ -1731,19 +1731,19 @@
         <v>121640</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>102003</v>
+        <v>102130</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>144039</v>
+        <v>143804</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1361997798998527</v>
+        <v>0.1361997798998526</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1142123802974154</v>
+        <v>0.1143544031070371</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1612802592504405</v>
+        <v>0.1610167158568324</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>128</v>
@@ -1752,19 +1752,19 @@
         <v>82174</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>69071</v>
+        <v>70360</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>97194</v>
+        <v>98420</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1040121401267781</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08742659825933638</v>
+        <v>0.08905832823806992</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1230233418375326</v>
+        <v>0.1245758593142655</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>254</v>
@@ -1773,19 +1773,19 @@
         <v>203813</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>177915</v>
+        <v>178034</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>230992</v>
+        <v>230578</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1210913528650186</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1057044243242083</v>
+        <v>0.1057751461639877</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1372391171553494</v>
+        <v>0.1369932054618691</v>
       </c>
     </row>
     <row r="19">
@@ -1877,19 +1877,19 @@
         <v>599414</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>567861</v>
+        <v>569024</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>628765</v>
+        <v>629909</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.623838738379169</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5910000299860092</v>
+        <v>0.5922103092868815</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6543854815534675</v>
+        <v>0.6555760965522531</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>887</v>
@@ -1898,19 +1898,19 @@
         <v>596343</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>573332</v>
+        <v>575837</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>618264</v>
+        <v>618240</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7399333271561291</v>
+        <v>0.739933327156129</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7113817538719552</v>
+        <v>0.7144893159587504</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7671316800283746</v>
+        <v>0.767102245088098</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1484</v>
@@ -1919,19 +1919,19 @@
         <v>1195757</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1155850</v>
+        <v>1157760</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1234363</v>
+        <v>1232032</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6767966159000124</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6542089214357396</v>
+        <v>0.6552900200747048</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6986475395715224</v>
+        <v>0.6973279295133175</v>
       </c>
     </row>
     <row r="21">
@@ -1948,19 +1948,19 @@
         <v>115795</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>94803</v>
+        <v>97455</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>137008</v>
+        <v>137902</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1205135181584884</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0986658925114982</v>
+        <v>0.1014260396451917</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1425910620068014</v>
+        <v>0.1435214332547929</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>78</v>
@@ -1969,19 +1969,19 @@
         <v>55187</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>43933</v>
+        <v>44414</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>67851</v>
+        <v>67875</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06847490473561742</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05451085028491862</v>
+        <v>0.05510793695677089</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.084188316035303</v>
+        <v>0.08421781600765234</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>200</v>
@@ -1990,19 +1990,19 @@
         <v>170982</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>148121</v>
+        <v>150704</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>193141</v>
+        <v>197340</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.09677550810103908</v>
+        <v>0.09677550810103909</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.08383595696123375</v>
+        <v>0.08529825798475972</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1093176827619719</v>
+        <v>0.1116938578914251</v>
       </c>
     </row>
     <row r="22">
@@ -2019,19 +2019,19 @@
         <v>3445</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9279</v>
+        <v>10313</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.003585509036355853</v>
+        <v>0.003585509036355854</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001158435602397046</v>
+        <v>0.001148326501965023</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0096570043882588</v>
+        <v>0.01073328075500291</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -2053,19 +2053,19 @@
         <v>3445</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>9210</v>
+        <v>9379</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.001949937986941929</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0006300459240939048</v>
+        <v>0.0006315277552225374</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.005212713595629985</v>
+        <v>0.005308703655591969</v>
       </c>
     </row>
     <row r="23">
@@ -2082,19 +2082,19 @@
         <v>12161</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6223</v>
+        <v>5975</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>26681</v>
+        <v>28194</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0126565263265964</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.006476770546870512</v>
+        <v>0.006218956473699715</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02776778961694601</v>
+        <v>0.02934318584794754</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>10</v>
@@ -2103,19 +2103,19 @@
         <v>6918</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3654</v>
+        <v>3488</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>13375</v>
+        <v>12675</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.008583132249054295</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.004533883403142899</v>
+        <v>0.004327451108056311</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01659577976051595</v>
+        <v>0.01572673305535613</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>20</v>
@@ -2124,19 +2124,19 @@
         <v>19079</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>11295</v>
+        <v>12169</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>33343</v>
+        <v>33961</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01079840092277556</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.006393061166446798</v>
+        <v>0.006887706031647943</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01887186692082812</v>
+        <v>0.01922199646144637</v>
       </c>
     </row>
     <row r="24">
@@ -2153,19 +2153,19 @@
         <v>46807</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>35242</v>
+        <v>34879</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>62546</v>
+        <v>59548</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.04871405882725272</v>
+        <v>0.04871405882725271</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03667783246545963</v>
+        <v>0.03630024008186221</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06509415935752667</v>
+        <v>0.06197435939028102</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>35</v>
@@ -2174,19 +2174,19 @@
         <v>23561</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>16262</v>
+        <v>16174</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>32653</v>
+        <v>32210</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0292337940854222</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02017804948580722</v>
+        <v>0.02006841813225508</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04051579203828042</v>
+        <v>0.03996537616540024</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>91</v>
@@ -2195,19 +2195,19 @@
         <v>70368</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>54843</v>
+        <v>56622</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>86368</v>
+        <v>86704</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.03982791275326619</v>
+        <v>0.03982791275326618</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03104111298741246</v>
+        <v>0.03204808005890836</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04888430078035187</v>
+        <v>0.04907432496865377</v>
       </c>
     </row>
     <row r="25">
@@ -2224,19 +2224,19 @@
         <v>19642</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>11668</v>
+        <v>11224</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>31148</v>
+        <v>31634</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.02044223385474433</v>
+        <v>0.02044223385474434</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0121439097647556</v>
+        <v>0.01168091495260899</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03241679270242225</v>
+        <v>0.03292287914740664</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>9</v>
@@ -2245,19 +2245,19 @@
         <v>5946</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2714</v>
+        <v>2645</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>11104</v>
+        <v>11188</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.007377247359783618</v>
+        <v>0.00737724735978362</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.003367477676281727</v>
+        <v>0.003281907647916975</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01377741899874967</v>
+        <v>0.0138817323062861</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>27</v>
@@ -2266,19 +2266,19 @@
         <v>25588</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>16268</v>
+        <v>16591</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>38082</v>
+        <v>39703</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01448249049460493</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.009207626783853798</v>
+        <v>0.009390636828205895</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02155437265467425</v>
+        <v>0.02247187958060023</v>
       </c>
     </row>
     <row r="26">
@@ -2295,19 +2295,19 @@
         <v>163584</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>142458</v>
+        <v>141206</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>187241</v>
+        <v>185756</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1702494154173934</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1482631705693085</v>
+        <v>0.1469593391815647</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1948705194334046</v>
+        <v>0.1933248910904952</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>179</v>
@@ -2316,19 +2316,19 @@
         <v>117988</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>101574</v>
+        <v>100750</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>134890</v>
+        <v>135446</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.1463975944139933</v>
+        <v>0.1463975944139934</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1260317758840976</v>
+        <v>0.1250090503388988</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1673691991745314</v>
+        <v>0.168059080215975</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>358</v>
@@ -2337,19 +2337,19 @@
         <v>281572</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>254037</v>
+        <v>254314</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>311161</v>
+        <v>310030</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1593691338413599</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1437845036274189</v>
+        <v>0.1439414501832252</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1761167890639732</v>
+        <v>0.1754763920360383</v>
       </c>
     </row>
     <row r="27">
@@ -2441,19 +2441,19 @@
         <v>628775</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>601115</v>
+        <v>602215</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>658792</v>
+        <v>655765</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.7019273466234539</v>
+        <v>0.7019273466234541</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6710499992080409</v>
+        <v>0.6722778504238275</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7354368266342216</v>
+        <v>0.732058299980379</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>851</v>
@@ -2462,19 +2462,19 @@
         <v>576073</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>555353</v>
+        <v>556547</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>593920</v>
+        <v>593668</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.784936422619614</v>
+        <v>0.7849364226196139</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7567046194877778</v>
+        <v>0.7583309472744335</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8092546605136353</v>
+        <v>0.8089113047444986</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1464</v>
@@ -2483,19 +2483,19 @@
         <v>1204847</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1168702</v>
+        <v>1170761</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1238606</v>
+        <v>1238361</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.7393093497374995</v>
+        <v>0.7393093497374996</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.717130668596024</v>
+        <v>0.7183939933231132</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7600245316277189</v>
+        <v>0.7598741119220096</v>
       </c>
     </row>
     <row r="29">
@@ -2512,19 +2512,19 @@
         <v>78630</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>62430</v>
+        <v>63151</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>95392</v>
+        <v>98769</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.08777766624928303</v>
+        <v>0.08777766624928302</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06969330603278642</v>
+        <v>0.07049774751370004</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1064902210902777</v>
+        <v>0.1102604911580612</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>33</v>
@@ -2533,19 +2533,19 @@
         <v>23191</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>16116</v>
+        <v>16094</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>31298</v>
+        <v>31602</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03159917459085591</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0219587775679964</v>
+        <v>0.02192877962469055</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04264527170806633</v>
+        <v>0.0430591301665874</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>119</v>
@@ -2554,19 +2554,19 @@
         <v>101821</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>84620</v>
+        <v>83816</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>123002</v>
+        <v>122750</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.06247845017061152</v>
+        <v>0.06247845017061154</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05192386697500866</v>
+        <v>0.05143029417816661</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07547556658452191</v>
+        <v>0.07532089462801546</v>
       </c>
     </row>
     <row r="30">
@@ -2583,19 +2583,19 @@
         <v>10926</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5874</v>
+        <v>5350</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>18360</v>
+        <v>18386</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0121968276260504</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.006557157877587619</v>
+        <v>0.005971905397842834</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02049572359322788</v>
+        <v>0.02052548599718525</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>7</v>
@@ -2604,19 +2604,19 @@
         <v>4985</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2072</v>
+        <v>2120</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>9392</v>
+        <v>10835</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.00679288945485071</v>
+        <v>0.006792889454850707</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.002822729664090339</v>
+        <v>0.002889302005178402</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.0127975784761062</v>
+        <v>0.01476380953983517</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>19</v>
@@ -2625,19 +2625,19 @@
         <v>15911</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>10101</v>
+        <v>9673</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>26095</v>
+        <v>24320</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.009763237911676968</v>
+        <v>0.009763237911676966</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.006198331361387578</v>
+        <v>0.005935388380223717</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01601223842643338</v>
+        <v>0.0149227974445259</v>
       </c>
     </row>
     <row r="31">
@@ -2654,19 +2654,19 @@
         <v>19168</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>12552</v>
+        <v>12040</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>29817</v>
+        <v>30066</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02139773643863963</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01401257401283123</v>
+        <v>0.0134412241799443</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03328620619533286</v>
+        <v>0.0335635376953146</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>12</v>
@@ -2675,19 +2675,19 @@
         <v>8331</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>4722</v>
+        <v>4617</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>14715</v>
+        <v>13980</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01135113803776256</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.006433665116165947</v>
+        <v>0.006290507410573814</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02005070089658956</v>
+        <v>0.01904884532928539</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>33</v>
@@ -2696,19 +2696,19 @@
         <v>27498</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>18398</v>
+        <v>18327</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>37965</v>
+        <v>38223</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01687338812852801</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01128954441845227</v>
+        <v>0.01124564082291971</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0232957332331814</v>
+        <v>0.02345382018501959</v>
       </c>
     </row>
     <row r="32">
@@ -2725,19 +2725,19 @@
         <v>52573</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>40179</v>
+        <v>40849</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>69427</v>
+        <v>68324</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.05868917245397488</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.04485385749147429</v>
+        <v>0.04560151019211094</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.07750383008162116</v>
+        <v>0.07627271381882583</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>49</v>
@@ -2746,19 +2746,19 @@
         <v>30231</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>22358</v>
+        <v>22304</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>40523</v>
+        <v>40080</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.04119224648347172</v>
+        <v>0.04119224648347171</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.03046399746320643</v>
+        <v>0.03039112989333415</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.05521475020729398</v>
+        <v>0.05461095592664626</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>109</v>
@@ -2767,19 +2767,19 @@
         <v>82804</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>67724</v>
+        <v>67161</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>102194</v>
+        <v>101590</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.05080967092638487</v>
+        <v>0.05080967092638488</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.04155637422124581</v>
+        <v>0.04121104383180229</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0627073881024847</v>
+        <v>0.06233672228361975</v>
       </c>
     </row>
     <row r="33">
@@ -2796,19 +2796,19 @@
         <v>20188</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>13011</v>
+        <v>12673</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>31985</v>
+        <v>31009</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.02253687340921755</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.0145242151194032</v>
+        <v>0.01414721014507597</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.03570648667652198</v>
+        <v>0.03461649486038513</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>9</v>
@@ -2817,19 +2817,19 @@
         <v>5899</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>2852</v>
+        <v>2798</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>10981</v>
+        <v>10761</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.008037653118457876</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.003885543646613523</v>
+        <v>0.003812915658065005</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.01496253241342052</v>
+        <v>0.01466239225065349</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>30</v>
@@ -2838,19 +2838,19 @@
         <v>26087</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>18270</v>
+        <v>17612</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>37761</v>
+        <v>37532</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.01600734767295364</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.01121087218234408</v>
+        <v>0.010806688310522</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.02317042238566867</v>
+        <v>0.02303007768574149</v>
       </c>
     </row>
     <row r="34">
@@ -2867,19 +2867,19 @@
         <v>85524</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>70264</v>
+        <v>69801</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>105475</v>
+        <v>104134</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.09547437719938055</v>
+        <v>0.09547437719938054</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.07843906417479146</v>
+        <v>0.077922056638407</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1177466250249164</v>
+        <v>0.1162494264631243</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>123</v>
@@ -2888,19 +2888,19 @@
         <v>85200</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>73062</v>
+        <v>71049</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>104922</v>
+        <v>102248</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.1160904756949873</v>
+        <v>0.1160904756949872</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.09955196236107111</v>
+        <v>0.0968084294088022</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1429636372004914</v>
+        <v>0.1393194545738782</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>212</v>
@@ -2909,19 +2909,19 @@
         <v>170724</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>147107</v>
+        <v>146396</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>196899</v>
+        <v>194346</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1047585554523452</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0902667217882458</v>
+        <v>0.08983064438749232</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1208198204810268</v>
+        <v>0.1192532405492733</v>
       </c>
     </row>
     <row r="35">
@@ -3013,19 +3013,19 @@
         <v>2292836</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2238193</v>
+        <v>2242395</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2342308</v>
+        <v>2342653</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.7167914097415603</v>
+        <v>0.7167914097415604</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.6997087977299579</v>
+        <v>0.7010223714237155</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.7322574386776415</v>
+        <v>0.7323653657945527</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>3262</v>
@@ -3034,19 +3034,19 @@
         <v>2236473</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2201335</v>
+        <v>2199380</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>2273482</v>
+        <v>2271598</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.8055124603198986</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.7928567818040204</v>
+        <v>0.792152537126689</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.8188418229083645</v>
+        <v>0.8181635131754587</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>5492</v>
@@ -3055,19 +3055,19 @@
         <v>4529309</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>4466856</v>
+        <v>4467885</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>4593519</v>
+        <v>4592442</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.7580168220218297</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.7475648008994479</v>
+        <v>0.7477370197359506</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.768762877675208</v>
+        <v>0.768582602791796</v>
       </c>
     </row>
     <row r="37">
@@ -3084,19 +3084,19 @@
         <v>267699</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>237230</v>
+        <v>238425</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>302638</v>
+        <v>300511</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.08368856430799998</v>
+        <v>0.08368856430799999</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.07416328575460342</v>
+        <v>0.07453683450374443</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.09461124690567593</v>
+        <v>0.09394654534132323</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>150</v>
@@ -3105,19 +3105,19 @@
         <v>108262</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>91380</v>
+        <v>90495</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>128967</v>
+        <v>126030</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.03899272479273225</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.03291257002802436</v>
+        <v>0.03259381526107095</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.04645021165165292</v>
+        <v>0.04539229619181242</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>428</v>
@@ -3126,19 +3126,19 @@
         <v>375960</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>337921</v>
+        <v>341465</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>413363</v>
+        <v>414552</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.06292004996762149</v>
+        <v>0.06292004996762147</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.05655381505551914</v>
+        <v>0.0571469699712126</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.06917967351961092</v>
+        <v>0.06937861828181839</v>
       </c>
     </row>
     <row r="38">
@@ -3155,19 +3155,19 @@
         <v>16769</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>10499</v>
+        <v>10043</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>26190</v>
+        <v>27795</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.005242427720362448</v>
+        <v>0.005242427720362449</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.003282223299811617</v>
+        <v>0.003139530494509981</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.008187694223892327</v>
+        <v>0.008689210709101567</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>11</v>
@@ -3176,19 +3176,19 @@
         <v>7421</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>3770</v>
+        <v>4208</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>12658</v>
+        <v>13307</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.002672740409193282</v>
+        <v>0.002672740409193281</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.001357679239706648</v>
+        <v>0.001515751649193759</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.004558996525833865</v>
+        <v>0.004792776829996854</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>29</v>
@@ -3197,19 +3197,19 @@
         <v>24190</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>16151</v>
+        <v>15763</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>35073</v>
+        <v>34432</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.004048388446213112</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.00270302576620909</v>
+        <v>0.002638004084698097</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.005869696847989964</v>
+        <v>0.005762427375831937</v>
       </c>
     </row>
     <row r="39">
@@ -3226,19 +3226,19 @@
         <v>34327</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>23558</v>
+        <v>24208</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>50603</v>
+        <v>51004</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.01073141106727885</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.007364789370438989</v>
+        <v>0.00756788499337784</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.01581954798438934</v>
+        <v>0.0159450366013271</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>28</v>
@@ -3247,19 +3247,19 @@
         <v>20503</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>13846</v>
+        <v>13286</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>30978</v>
+        <v>28563</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>0.007384570814024165</v>
+        <v>0.007384570814024164</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.004986753900649689</v>
+        <v>0.004785339911462869</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.01115723273472248</v>
+        <v>0.0102877090181914</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>62</v>
@@ -3268,19 +3268,19 @@
         <v>54830</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>42584</v>
+        <v>41767</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>72079</v>
+        <v>72993</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.009176257376275187</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.007126776492382512</v>
+        <v>0.006990043580264381</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.01206306418662772</v>
+        <v>0.01221598236151263</v>
       </c>
     </row>
     <row r="40">
@@ -3297,19 +3297,19 @@
         <v>125967</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>106146</v>
+        <v>106812</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>148160</v>
+        <v>148517</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.03938018630080439</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.03318363042941385</v>
+        <v>0.03339184958235054</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.04631795699294185</v>
+        <v>0.04642978605227104</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>105</v>
@@ -3318,19 +3318,19 @@
         <v>68989</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>56410</v>
+        <v>56488</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>85708</v>
+        <v>83843</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.02484773561442459</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.02031735679524325</v>
+        <v>0.02034540619473103</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.0308693527429553</v>
+        <v>0.0301977013630985</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>250</v>
@@ -3339,19 +3339,19 @@
         <v>194956</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>170676</v>
+        <v>170937</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>221854</v>
+        <v>219491</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.03262749044020144</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.02856395098603666</v>
+        <v>0.02860765345549576</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.03712899751937577</v>
+        <v>0.03673359780112653</v>
       </c>
     </row>
     <row r="41">
@@ -3368,19 +3368,19 @@
         <v>47891</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>35253</v>
+        <v>34875</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>65509</v>
+        <v>64504</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.01497164231591569</v>
+        <v>0.0149716423159157</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.01102091338520027</v>
+        <v>0.01090280817995919</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.0204796737380516</v>
+        <v>0.02016523542980758</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>24</v>
@@ -3389,19 +3389,19 @@
         <v>16750</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>10969</v>
+        <v>10684</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>24862</v>
+        <v>24501</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.00603286681986269</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.00395074604917397</v>
+        <v>0.003848190633845934</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.008954712321899297</v>
+        <v>0.008824390440611264</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>71</v>
@@ -3410,19 +3410,19 @@
         <v>64641</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>50507</v>
+        <v>48601</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>83452</v>
+        <v>82570</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01081812178495473</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.008452690325675076</v>
+        <v>0.008133854809474643</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01396641942675515</v>
+        <v>0.0138187204226825</v>
       </c>
     </row>
     <row r="42">
@@ -3439,19 +3439,19 @@
         <v>413260</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>376392</v>
+        <v>374587</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>455358</v>
+        <v>450652</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1291943585460782</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1176685844540233</v>
+        <v>0.1171041670509237</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1423550128960329</v>
+        <v>0.1408837894812867</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>483</v>
@@ -3460,19 +3460,19 @@
         <v>318063</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>287761</v>
+        <v>289038</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>347817</v>
+        <v>346414</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1145569012298644</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1036430564530335</v>
+        <v>0.1041032142818367</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1252735122416208</v>
+        <v>0.1247682079731682</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>920</v>
@@ -3481,19 +3481,19 @@
         <v>731323</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>685893</v>
+        <v>682330</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>783401</v>
+        <v>780147</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1223928699629043</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1147897128854482</v>
+        <v>0.1141935582680927</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1311085309585837</v>
+        <v>0.130563989678161</v>
       </c>
     </row>
     <row r="43">
